--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="RandomDatesData" sheetId="2" r:id="rId2"/>
+    <sheet name="RandomDatesData" sheetId="5" r:id="rId2"/>
+    <sheet name="MyInfo" sheetId="8" r:id="rId3"/>
+    <sheet name="NewContact" sheetId="9" r:id="rId4"/>
+    <sheet name="EventInfo" sheetId="10" r:id="rId5"/>
+    <sheet name="Time" sheetId="12" r:id="rId6"/>
+    <sheet name="NewEvent" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>mestafahammad@gmail.com</t>
   </si>
@@ -34,16 +39,100 @@
     <t>May</t>
   </si>
   <si>
-    <t>03</t>
+    <t>September</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>September</t>
+    <t>eventN1</t>
+  </si>
+  <si>
+    <t>eventN2</t>
+  </si>
+  <si>
+    <t>eventN3</t>
+  </si>
+  <si>
+    <t>firstEvent</t>
+  </si>
+  <si>
+    <t>secondEvent</t>
+  </si>
+  <si>
+    <t>thirdEvent</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Mustapha</t>
+  </si>
+  <si>
+    <t>Hammad</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>kali</t>
+  </si>
+  <si>
+    <t>haman</t>
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>soam</t>
+  </si>
+  <si>
+    <t>herait</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>23:45</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>08:30</t>
   </si>
 </sst>
 </file>
@@ -376,7 +465,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" activeCellId="2" sqref="B2 A2 B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,48 +495,386 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2022</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2023</v>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>